--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Npnt-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Npnt-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Npnt</t>
+  </si>
+  <si>
+    <t>Itga8</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Npnt</t>
-  </si>
-  <si>
-    <t>Itga8</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9696033333333333</v>
+        <v>1.701075</v>
       </c>
       <c r="H2">
-        <v>2.90881</v>
+        <v>5.103225</v>
       </c>
       <c r="I2">
-        <v>0.3086976221779291</v>
+        <v>0.4476729925870095</v>
       </c>
       <c r="J2">
-        <v>0.3860913613682198</v>
+        <v>0.5378741343591031</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.253707</v>
+        <v>0.06706333333333332</v>
       </c>
       <c r="N2">
-        <v>3.761121</v>
+        <v>0.20119</v>
       </c>
       <c r="O2">
-        <v>0.07760709912293905</v>
+        <v>0.01564803973866319</v>
       </c>
       <c r="P2">
-        <v>0.1037097015912075</v>
+        <v>0.01878890697104963</v>
       </c>
       <c r="Q2">
-        <v>1.215598486223333</v>
+        <v>0.11407975975</v>
       </c>
       <c r="R2">
-        <v>10.94038637601</v>
+        <v>1.02671783775</v>
       </c>
       <c r="S2">
-        <v>0.02395712696337813</v>
+        <v>0.007005204777927796</v>
       </c>
       <c r="T2">
-        <v>0.04004141987444113</v>
+        <v>0.01010606707260704</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9696033333333333</v>
+        <v>1.701075</v>
       </c>
       <c r="H3">
-        <v>2.90881</v>
+        <v>5.103225</v>
       </c>
       <c r="I3">
-        <v>0.3086976221779291</v>
+        <v>0.4476729925870095</v>
       </c>
       <c r="J3">
-        <v>0.3860913613682198</v>
+        <v>0.5378741343591031</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.505127</v>
       </c>
       <c r="O3">
-        <v>0.07232491018701338</v>
+        <v>0.2726197454399388</v>
       </c>
       <c r="P3">
-        <v>0.09665088552303537</v>
+        <v>0.3273398534952746</v>
       </c>
       <c r="Q3">
-        <v>1.132860940985555</v>
+        <v>1.987494637175</v>
       </c>
       <c r="R3">
-        <v>10.19574846887</v>
+        <v>17.887451734575</v>
       </c>
       <c r="S3">
-        <v>0.02232652779896331</v>
+        <v>0.1220444972794062</v>
       </c>
       <c r="T3">
-        <v>0.03731607196903269</v>
+        <v>0.1760676403400065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9696033333333333</v>
+        <v>1.701075</v>
       </c>
       <c r="H4">
-        <v>2.90881</v>
+        <v>5.103225</v>
       </c>
       <c r="I4">
-        <v>0.3086976221779291</v>
+        <v>0.4476729925870095</v>
       </c>
       <c r="J4">
-        <v>0.3860913613682198</v>
+        <v>0.5378741343591031</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6422343333333332</v>
+        <v>0.72155</v>
       </c>
       <c r="N4">
-        <v>1.926703</v>
+        <v>2.16465</v>
       </c>
       <c r="O4">
-        <v>0.03975565548182683</v>
+        <v>0.1683608987539007</v>
       </c>
       <c r="P4">
-        <v>0.05312719085211143</v>
+        <v>0.2021542197668005</v>
       </c>
       <c r="Q4">
-        <v>0.622712550381111</v>
+        <v>1.22741066625</v>
       </c>
       <c r="R4">
-        <v>5.604412953429999</v>
+        <v>11.04669599625</v>
       </c>
       <c r="S4">
-        <v>0.01227247631536489</v>
+        <v>0.07537062737979724</v>
       </c>
       <c r="T4">
-        <v>0.02051194944176094</v>
+        <v>0.1087335259641077</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9696033333333333</v>
+        <v>1.701075</v>
       </c>
       <c r="H5">
-        <v>2.90881</v>
+        <v>5.103225</v>
       </c>
       <c r="I5">
-        <v>0.3086976221779291</v>
+        <v>0.4476729925870095</v>
       </c>
       <c r="J5">
-        <v>0.3860913613682198</v>
+        <v>0.5378741343591031</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.1977655</v>
+        <v>2.1492875</v>
       </c>
       <c r="N5">
-        <v>24.395531</v>
+        <v>4.298575</v>
       </c>
       <c r="O5">
-        <v>0.7550673293176684</v>
+        <v>0.501498129277977</v>
       </c>
       <c r="P5">
-        <v>0.6726859466018379</v>
+        <v>0.4014390664699025</v>
       </c>
       <c r="Q5">
-        <v>11.82699408801833</v>
+        <v>3.6560992340625</v>
       </c>
       <c r="R5">
-        <v>70.96196452810999</v>
+        <v>21.936595404375</v>
       </c>
       <c r="S5">
-        <v>0.2330874891446036</v>
+        <v>0.2245071683106589</v>
       </c>
       <c r="T5">
-        <v>0.2597182328967732</v>
+        <v>0.2159236903754252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9696033333333333</v>
+        <v>1.701075</v>
       </c>
       <c r="H6">
-        <v>2.90881</v>
+        <v>5.103225</v>
       </c>
       <c r="I6">
-        <v>0.3086976221779291</v>
+        <v>0.4476729925870095</v>
       </c>
       <c r="J6">
-        <v>0.3860913613682198</v>
+        <v>0.5378741343591031</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.8924576666666667</v>
+        <v>0.1794573333333333</v>
       </c>
       <c r="N6">
-        <v>2.677373</v>
+        <v>0.538372</v>
       </c>
       <c r="O6">
-        <v>0.05524500589055249</v>
+        <v>0.04187318678952025</v>
       </c>
       <c r="P6">
-        <v>0.07382627543180768</v>
+        <v>0.05027795329697268</v>
       </c>
       <c r="Q6">
-        <v>0.8653299284588889</v>
+        <v>0.3052703833</v>
       </c>
       <c r="R6">
-        <v>7.787969356130001</v>
+        <v>2.7474334497</v>
       </c>
       <c r="S6">
-        <v>0.01705400195561924</v>
+        <v>0.01874549483921937</v>
       </c>
       <c r="T6">
-        <v>0.02850368718621179</v>
+        <v>0.0270432106069566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>0.406111</v>
       </c>
       <c r="I7">
-        <v>0.04309855234281407</v>
+        <v>0.03562549695388759</v>
       </c>
       <c r="J7">
-        <v>0.05390381250635453</v>
+        <v>0.04280363938072684</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.253707</v>
+        <v>0.06706333333333332</v>
       </c>
       <c r="N7">
-        <v>3.761121</v>
+        <v>0.20119</v>
       </c>
       <c r="O7">
-        <v>0.07760709912293905</v>
+        <v>0.01564803973866319</v>
       </c>
       <c r="P7">
-        <v>0.1037097015912075</v>
+        <v>0.01878890697104963</v>
       </c>
       <c r="Q7">
-        <v>0.1697147344923334</v>
+        <v>0.009078385787777777</v>
       </c>
       <c r="R7">
-        <v>1.527432610431</v>
+        <v>0.08170547208999999</v>
       </c>
       <c r="S7">
-        <v>0.003344753623723949</v>
+        <v>0.0005574691920440574</v>
       </c>
       <c r="T7">
-        <v>0.005590348309662426</v>
+        <v>0.0008042335983468332</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.406111</v>
       </c>
       <c r="I8">
-        <v>0.04309855234281407</v>
+        <v>0.03562549695388759</v>
       </c>
       <c r="J8">
-        <v>0.05390381250635453</v>
+        <v>0.04280363938072684</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.505127</v>
       </c>
       <c r="O8">
-        <v>0.07232491018701338</v>
+        <v>0.2726197454399388</v>
       </c>
       <c r="P8">
-        <v>0.09665088552303537</v>
+        <v>0.3273398534952746</v>
       </c>
       <c r="Q8">
         <v>0.1581634034552222</v>
@@ -948,10 +948,10 @@
         <v>1.423470631097</v>
       </c>
       <c r="S8">
-        <v>0.003117098927384323</v>
+        <v>0.009712213910740152</v>
       </c>
       <c r="T8">
-        <v>0.005209851211806834</v>
+        <v>0.01401133704395169</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>0.406111</v>
       </c>
       <c r="I9">
-        <v>0.04309855234281407</v>
+        <v>0.03562549695388759</v>
       </c>
       <c r="J9">
-        <v>0.05390381250635453</v>
+        <v>0.04280363938072684</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6422343333333332</v>
+        <v>0.72155</v>
       </c>
       <c r="N9">
-        <v>1.926703</v>
+        <v>2.16465</v>
       </c>
       <c r="O9">
-        <v>0.03975565548182683</v>
+        <v>0.1683608987539007</v>
       </c>
       <c r="P9">
-        <v>0.05312719085211143</v>
+        <v>0.2021542197668005</v>
       </c>
       <c r="Q9">
-        <v>0.08693947578144444</v>
+        <v>0.09767646401666667</v>
       </c>
       <c r="R9">
-        <v>0.782455282033</v>
+        <v>0.87908817615</v>
       </c>
       <c r="S9">
-        <v>0.001713411198706397</v>
+        <v>0.005997940685710866</v>
       </c>
       <c r="T9">
-        <v>0.002863758134681528</v>
+        <v>0.008652936322190332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.406111</v>
       </c>
       <c r="I10">
-        <v>0.04309855234281407</v>
+        <v>0.03562549695388759</v>
       </c>
       <c r="J10">
-        <v>0.05390381250635453</v>
+        <v>0.04280363938072684</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.1977655</v>
+        <v>2.1492875</v>
       </c>
       <c r="N10">
-        <v>24.395531</v>
+        <v>4.298575</v>
       </c>
       <c r="O10">
-        <v>0.7550673293176684</v>
+        <v>0.501498129277977</v>
       </c>
       <c r="P10">
-        <v>0.6726859466018379</v>
+        <v>0.4014390664699025</v>
       </c>
       <c r="Q10">
-        <v>1.651215581656833</v>
+        <v>0.2909497653041667</v>
       </c>
       <c r="R10">
-        <v>9.907293489940999</v>
+        <v>1.745698591825</v>
       </c>
       <c r="S10">
-        <v>0.03254230881494637</v>
+        <v>0.0178661200769729</v>
       </c>
       <c r="T10">
-        <v>0.03626033714128508</v>
+        <v>0.01718305303451334</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,40 +1104,40 @@
         <v>0.406111</v>
       </c>
       <c r="I11">
-        <v>0.04309855234281407</v>
+        <v>0.03562549695388759</v>
       </c>
       <c r="J11">
-        <v>0.05390381250635453</v>
+        <v>0.04280363938072684</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.8924576666666667</v>
+        <v>0.1794573333333333</v>
       </c>
       <c r="N11">
-        <v>2.677373</v>
+        <v>0.538372</v>
       </c>
       <c r="O11">
-        <v>0.05524500589055249</v>
+        <v>0.04187318678952025</v>
       </c>
       <c r="P11">
-        <v>0.07382627543180768</v>
+        <v>0.05027795329697268</v>
       </c>
       <c r="Q11">
-        <v>0.1208122918225556</v>
+        <v>0.02429319903244444</v>
       </c>
       <c r="R11">
-        <v>1.087310626403</v>
+        <v>0.218638791292</v>
       </c>
       <c r="S11">
-        <v>0.002380979778053048</v>
+        <v>0.00149175308841962</v>
       </c>
       <c r="T11">
-        <v>0.00397951770891865</v>
+        <v>0.002152079381724645</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.07713966666666668</v>
+        <v>1.91168</v>
       </c>
       <c r="H12">
-        <v>0.231419</v>
+        <v>3.82336</v>
       </c>
       <c r="I12">
-        <v>0.02455935417809833</v>
+        <v>0.5030980447474299</v>
       </c>
       <c r="J12">
-        <v>0.0307166424608249</v>
+        <v>0.4029778131168468</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.253707</v>
+        <v>0.06706333333333332</v>
       </c>
       <c r="N12">
-        <v>3.761121</v>
+        <v>0.20119</v>
       </c>
       <c r="O12">
-        <v>0.07760709912293905</v>
+        <v>0.01564803973866319</v>
       </c>
       <c r="P12">
-        <v>0.1037097015912075</v>
+        <v>0.01878890697104963</v>
       </c>
       <c r="Q12">
-        <v>0.09671054007766669</v>
+        <v>0.1282036330666667</v>
       </c>
       <c r="R12">
-        <v>0.8703948606990001</v>
+        <v>0.7692217983999999</v>
       </c>
       <c r="S12">
-        <v>0.001905980234095044</v>
+        <v>0.007872498196651534</v>
       </c>
       <c r="T12">
-        <v>0.003185613823495964</v>
+        <v>0.00757151264204946</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.07713966666666668</v>
+        <v>1.91168</v>
       </c>
       <c r="H13">
-        <v>0.231419</v>
+        <v>3.82336</v>
       </c>
       <c r="I13">
-        <v>0.02455935417809833</v>
+        <v>0.5030980447474299</v>
       </c>
       <c r="J13">
-        <v>0.0307166424608249</v>
+        <v>0.4029778131168468</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.505127</v>
       </c>
       <c r="O13">
-        <v>0.07232491018701338</v>
+        <v>0.2726197454399388</v>
       </c>
       <c r="P13">
-        <v>0.09665088552303537</v>
+        <v>0.3273398534952746</v>
       </c>
       <c r="Q13">
-        <v>0.09012810946811113</v>
+        <v>2.233560394453333</v>
       </c>
       <c r="R13">
-        <v>0.8111529852130001</v>
+        <v>13.40136236672</v>
       </c>
       <c r="S13">
-        <v>0.001776253085182014</v>
+        <v>0.1371544608903753</v>
       </c>
       <c r="T13">
-        <v>0.002968790694133195</v>
+        <v>0.1319106983075148</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.07713966666666668</v>
+        <v>1.91168</v>
       </c>
       <c r="H14">
-        <v>0.231419</v>
+        <v>3.82336</v>
       </c>
       <c r="I14">
-        <v>0.02455935417809833</v>
+        <v>0.5030980447474299</v>
       </c>
       <c r="J14">
-        <v>0.0307166424608249</v>
+        <v>0.4029778131168468</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6422343333333332</v>
+        <v>0.72155</v>
       </c>
       <c r="N14">
-        <v>1.926703</v>
+        <v>2.16465</v>
       </c>
       <c r="O14">
-        <v>0.03975565548182683</v>
+        <v>0.1683608987539007</v>
       </c>
       <c r="P14">
-        <v>0.05312719085211143</v>
+        <v>0.2021542197668005</v>
       </c>
       <c r="Q14">
-        <v>0.04954174239522222</v>
+        <v>1.379372704</v>
       </c>
       <c r="R14">
-        <v>0.445875681557</v>
+        <v>8.276236224</v>
       </c>
       <c r="S14">
-        <v>0.0009763732235606415</v>
+        <v>0.08470203897500744</v>
       </c>
       <c r="T14">
-        <v>0.001631888926352314</v>
+        <v>0.08146366539396772</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.07713966666666668</v>
+        <v>1.91168</v>
       </c>
       <c r="H15">
-        <v>0.231419</v>
+        <v>3.82336</v>
       </c>
       <c r="I15">
-        <v>0.02455935417809833</v>
+        <v>0.5030980447474299</v>
       </c>
       <c r="J15">
-        <v>0.0307166424608249</v>
+        <v>0.4029778131168468</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.1977655</v>
+        <v>2.1492875</v>
       </c>
       <c r="N15">
-        <v>24.395531</v>
+        <v>4.298575</v>
       </c>
       <c r="O15">
-        <v>0.7550673293176684</v>
+        <v>0.501498129277977</v>
       </c>
       <c r="P15">
-        <v>0.6726859466018379</v>
+        <v>0.4014390664699025</v>
       </c>
       <c r="Q15">
-        <v>0.9409315647481667</v>
+        <v>4.108749928</v>
       </c>
       <c r="R15">
-        <v>5.645589388489</v>
+        <v>16.434999712</v>
       </c>
       <c r="S15">
-        <v>0.01854396596902343</v>
+        <v>0.252302728284244</v>
       </c>
       <c r="T15">
-        <v>0.0206626537101902</v>
+        <v>0.1617710371057098</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.07713966666666668</v>
+        <v>1.91168</v>
       </c>
       <c r="H16">
-        <v>0.231419</v>
+        <v>3.82336</v>
       </c>
       <c r="I16">
-        <v>0.02455935417809833</v>
+        <v>0.5030980447474299</v>
       </c>
       <c r="J16">
-        <v>0.0307166424608249</v>
+        <v>0.4029778131168468</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.8924576666666667</v>
+        <v>0.1794573333333333</v>
       </c>
       <c r="N16">
-        <v>2.677373</v>
+        <v>0.538372</v>
       </c>
       <c r="O16">
-        <v>0.05524500589055249</v>
+        <v>0.04187318678952025</v>
       </c>
       <c r="P16">
-        <v>0.07382627543180768</v>
+        <v>0.05027795329697268</v>
       </c>
       <c r="Q16">
-        <v>0.06884388692077779</v>
+        <v>0.3430649949866666</v>
       </c>
       <c r="R16">
-        <v>0.6195949822870001</v>
+        <v>2.05838996992</v>
       </c>
       <c r="S16">
-        <v>0.001356781666237207</v>
+        <v>0.02106631840115155</v>
       </c>
       <c r="T16">
-        <v>0.002267695306653218</v>
+        <v>0.02026089966760501</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05169066666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.155072</v>
+      </c>
+      <c r="I17">
+        <v>0.01360346571167306</v>
+      </c>
+      <c r="J17">
+        <v>0.01634441314332306</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.8888515</v>
-      </c>
-      <c r="H17">
-        <v>3.777703</v>
-      </c>
-      <c r="I17">
-        <v>0.6013634098107625</v>
-      </c>
-      <c r="J17">
-        <v>0.501421025819771</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.253707</v>
+        <v>0.06706333333333332</v>
       </c>
       <c r="N17">
-        <v>3.761121</v>
+        <v>0.20119</v>
       </c>
       <c r="O17">
-        <v>0.07760709912293905</v>
+        <v>0.01564803973866319</v>
       </c>
       <c r="P17">
-        <v>0.1037097015912075</v>
+        <v>0.01878890697104963</v>
       </c>
       <c r="Q17">
-        <v>2.3680663475105</v>
+        <v>0.003466548408888888</v>
       </c>
       <c r="R17">
-        <v>14.208398085063</v>
+        <v>0.03119893567999999</v>
       </c>
       <c r="S17">
-        <v>0.04667006975409246</v>
+        <v>0.0002128675720398021</v>
       </c>
       <c r="T17">
-        <v>0.05200222495932559</v>
+        <v>0.000307093658046298</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.8888515</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H18">
-        <v>3.777703</v>
+        <v>0.155072</v>
       </c>
       <c r="I18">
-        <v>0.6013634098107625</v>
+        <v>0.01360346571167306</v>
       </c>
       <c r="J18">
-        <v>0.501421025819771</v>
+        <v>0.01634441314332306</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.505127</v>
       </c>
       <c r="O18">
-        <v>0.07232491018701338</v>
+        <v>0.2726197454399388</v>
       </c>
       <c r="P18">
-        <v>0.09665088552303537</v>
+        <v>0.3273398534952746</v>
       </c>
       <c r="Q18">
-        <v>2.206888130546833</v>
+        <v>0.06039411712711111</v>
       </c>
       <c r="R18">
-        <v>13.241328783281</v>
+        <v>0.543547054144</v>
       </c>
       <c r="S18">
-        <v>0.04349355460431952</v>
+        <v>0.003708573359417245</v>
       </c>
       <c r="T18">
-        <v>0.04846278616534965</v>
+        <v>0.005350177803801612</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.8888515</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H19">
-        <v>3.777703</v>
+        <v>0.155072</v>
       </c>
       <c r="I19">
-        <v>0.6013634098107625</v>
+        <v>0.01360346571167306</v>
       </c>
       <c r="J19">
-        <v>0.501421025819771</v>
+        <v>0.01634441314332306</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6422343333333332</v>
+        <v>0.72155</v>
       </c>
       <c r="N19">
-        <v>1.926703</v>
+        <v>2.16465</v>
       </c>
       <c r="O19">
-        <v>0.03975565548182683</v>
+        <v>0.1683608987539007</v>
       </c>
       <c r="P19">
-        <v>0.05312719085211143</v>
+        <v>0.2021542197668005</v>
       </c>
       <c r="Q19">
-        <v>1.213085283868166</v>
+        <v>0.03729740053333333</v>
       </c>
       <c r="R19">
-        <v>7.278511703208999</v>
+        <v>0.3356766047999999</v>
       </c>
       <c r="S19">
-        <v>0.02390759653981332</v>
+        <v>0.002290291713385147</v>
       </c>
       <c r="T19">
-        <v>0.02663909053598847</v>
+        <v>0.003304092086534713</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.8888515</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H20">
-        <v>3.777703</v>
+        <v>0.155072</v>
       </c>
       <c r="I20">
-        <v>0.6013634098107625</v>
+        <v>0.01360346571167306</v>
       </c>
       <c r="J20">
-        <v>0.501421025819771</v>
+        <v>0.01634441314332306</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.1977655</v>
+        <v>2.1492875</v>
       </c>
       <c r="N20">
-        <v>24.395531</v>
+        <v>4.298575</v>
       </c>
       <c r="O20">
-        <v>0.7550673293176684</v>
+        <v>0.501498129277977</v>
       </c>
       <c r="P20">
-        <v>0.6726859466018379</v>
+        <v>0.4014390664699025</v>
       </c>
       <c r="Q20">
-        <v>23.03976766132325</v>
+        <v>0.1110981037333333</v>
       </c>
       <c r="R20">
-        <v>92.15907064529299</v>
+        <v>0.6665886223999998</v>
       </c>
       <c r="S20">
-        <v>0.454069863795179</v>
+        <v>0.006822112606101141</v>
       </c>
       <c r="T20">
-        <v>0.3372988773996373</v>
+        <v>0.006561285954254015</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,371 +1703,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05169066666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.155072</v>
+      </c>
+      <c r="I21">
+        <v>0.01360346571167306</v>
+      </c>
+      <c r="J21">
+        <v>0.01634441314332306</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.8888515</v>
-      </c>
-      <c r="H21">
-        <v>3.777703</v>
-      </c>
-      <c r="I21">
-        <v>0.6013634098107625</v>
-      </c>
-      <c r="J21">
-        <v>0.501421025819771</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.8924576666666667</v>
+        <v>0.1794573333333333</v>
       </c>
       <c r="N21">
-        <v>2.677373</v>
+        <v>0.538372</v>
       </c>
       <c r="O21">
-        <v>0.05524500589055249</v>
+        <v>0.04187318678952025</v>
       </c>
       <c r="P21">
-        <v>0.07382627543180768</v>
+        <v>0.05027795329697268</v>
       </c>
       <c r="Q21">
-        <v>1.685720002369833</v>
+        <v>0.009276269198222222</v>
       </c>
       <c r="R21">
-        <v>10.114320014219</v>
+        <v>0.08348642278399998</v>
       </c>
       <c r="S21">
-        <v>0.03322232511735831</v>
+        <v>0.00056962046072972</v>
       </c>
       <c r="T21">
-        <v>0.03701804675946996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.06998366666666668</v>
-      </c>
-      <c r="H22">
-        <v>0.209951</v>
-      </c>
-      <c r="I22">
-        <v>0.02228106149039587</v>
-      </c>
-      <c r="J22">
-        <v>0.02786715784482972</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1.253707</v>
-      </c>
-      <c r="N22">
-        <v>3.761121</v>
-      </c>
-      <c r="O22">
-        <v>0.07760709912293905</v>
-      </c>
-      <c r="P22">
-        <v>0.1037097015912075</v>
-      </c>
-      <c r="Q22">
-        <v>0.08773901278566669</v>
-      </c>
-      <c r="R22">
-        <v>0.7896511150710002</v>
-      </c>
-      <c r="S22">
-        <v>0.001729168547649453</v>
-      </c>
-      <c r="T22">
-        <v>0.002890094624282367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.06998366666666668</v>
-      </c>
-      <c r="H23">
-        <v>0.209951</v>
-      </c>
-      <c r="I23">
-        <v>0.02228106149039587</v>
-      </c>
-      <c r="J23">
-        <v>0.02786715784482972</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.168375666666667</v>
-      </c>
-      <c r="N23">
-        <v>3.505127</v>
-      </c>
-      <c r="O23">
-        <v>0.07232491018701338</v>
-      </c>
-      <c r="P23">
-        <v>0.09665088552303537</v>
-      </c>
-      <c r="Q23">
-        <v>0.08176721319744447</v>
-      </c>
-      <c r="R23">
-        <v>0.735904918777</v>
-      </c>
-      <c r="S23">
-        <v>0.001611475771164204</v>
-      </c>
-      <c r="T23">
-        <v>0.002693385482712995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.06998366666666668</v>
-      </c>
-      <c r="H24">
-        <v>0.209951</v>
-      </c>
-      <c r="I24">
-        <v>0.02228106149039587</v>
-      </c>
-      <c r="J24">
-        <v>0.02786715784482972</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.6422343333333332</v>
-      </c>
-      <c r="N24">
-        <v>1.926703</v>
-      </c>
-      <c r="O24">
-        <v>0.03975565548182683</v>
-      </c>
-      <c r="P24">
-        <v>0.05312719085211143</v>
-      </c>
-      <c r="Q24">
-        <v>0.04494591350588889</v>
-      </c>
-      <c r="R24">
-        <v>0.404513221553</v>
-      </c>
-      <c r="S24">
-        <v>0.0008857982043815774</v>
-      </c>
-      <c r="T24">
-        <v>0.001480503813328183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.06998366666666668</v>
-      </c>
-      <c r="H25">
-        <v>0.209951</v>
-      </c>
-      <c r="I25">
-        <v>0.02228106149039587</v>
-      </c>
-      <c r="J25">
-        <v>0.02786715784482972</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>12.1977655</v>
-      </c>
-      <c r="N25">
-        <v>24.395531</v>
-      </c>
-      <c r="O25">
-        <v>0.7550673293176684</v>
-      </c>
-      <c r="P25">
-        <v>0.6726859466018379</v>
-      </c>
-      <c r="Q25">
-        <v>0.8536443548301668</v>
-      </c>
-      <c r="R25">
-        <v>5.121866128981</v>
-      </c>
-      <c r="S25">
-        <v>0.01682370159391596</v>
-      </c>
-      <c r="T25">
-        <v>0.01874584545395211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.06998366666666668</v>
-      </c>
-      <c r="H26">
-        <v>0.209951</v>
-      </c>
-      <c r="I26">
-        <v>0.02228106149039587</v>
-      </c>
-      <c r="J26">
-        <v>0.02786715784482972</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.8924576666666667</v>
-      </c>
-      <c r="N26">
-        <v>2.677373</v>
-      </c>
-      <c r="O26">
-        <v>0.05524500589055249</v>
-      </c>
-      <c r="P26">
-        <v>0.07382627543180768</v>
-      </c>
-      <c r="Q26">
-        <v>0.06245745985811112</v>
-      </c>
-      <c r="R26">
-        <v>0.5621171387230001</v>
-      </c>
-      <c r="S26">
-        <v>0.001230917373284682</v>
-      </c>
-      <c r="T26">
-        <v>0.002057328470554059</v>
+        <v>0.0008217636406864235</v>
       </c>
     </row>
   </sheetData>
